--- a/src/main/resources/com/blaze/data/TestData.xlsx
+++ b/src/main/resources/com/blaze/data/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>verifyFlightBooking</t>
+  </si>
+  <si>
+    <t>Airlines</t>
+  </si>
+  <si>
+    <t>Virgin America</t>
+  </si>
+  <si>
+    <t>CreditCardNumber</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>560041</t>
   </si>
 </sst>
 </file>
@@ -125,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -133,12 +148,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,67 +454,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8">
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3">
-        <v>560041</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/src/main/resources/com/blaze/data/TestData.xlsx
+++ b/src/main/resources/com/blaze/data/TestData.xlsx
@@ -54,9 +54,6 @@
     <t>Karnataka</t>
   </si>
   <si>
-    <t>Master</t>
-  </si>
-  <si>
     <t>Mohammed Zabiulla</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>560041</t>
+  </si>
+  <si>
+    <t>American Express</t>
   </si>
 </sst>
 </file>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.4"/>
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -491,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>6</v>
@@ -502,10 +502,10 @@
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="28.8">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -520,16 +520,16 @@
         <v>11</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
